--- a/SupplementaryFile.xlsx
+++ b/SupplementaryFile.xlsx
@@ -1,22 +1,24 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10420"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10928"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/thyang/SyncCloud/Works/Research/3_CRM/2022_CRM-gene_target/Supplementary/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{694359A5-A5D4-E342-B469-BFD32FC57304}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6D673A9F-4CFB-C64D-9AC7-B2CA0BAFAA73}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2680" yWindow="500" windowWidth="28240" windowHeight="16580" activeTab="2" xr2:uid="{8995E919-6CB4-D04D-887A-1157242BEA27}"/>
+    <workbookView xWindow="4140" yWindow="500" windowWidth="28240" windowHeight="16500" activeTab="4" xr2:uid="{8995E919-6CB4-D04D-887A-1157242BEA27}"/>
   </bookViews>
   <sheets>
     <sheet name="TableS1" sheetId="2" r:id="rId1"/>
     <sheet name="TableS2" sheetId="3" r:id="rId2"/>
     <sheet name="Tables S3" sheetId="4" r:id="rId3"/>
     <sheet name="TableS4" sheetId="1" r:id="rId4"/>
+    <sheet name="Fig S1" sheetId="5" r:id="rId5"/>
+    <sheet name="Table S5" sheetId="6" r:id="rId6"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -39,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="175" uniqueCount="156">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="190" uniqueCount="170">
   <si>
     <t>Training-validation Set</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -524,6 +526,62 @@
   </si>
   <si>
     <t>Tables S2: the ChIP-seq experiments used in CRM-TI Block2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>a) Functional enrichment analysis for genes regulated by CRM-promoter interactions</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>b) Functional enrichment analysis for genes regulated by CRM-ncRNA transcription</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">c) RNA-seq FPKM distributions of genes regulated by CRM-promoter interactions and genes regulated by CRM-ncRNA transcription </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Tables S5: the Drosophila embryo RNA-seq runs used in Fig. S1-c</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SRR023199</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SRR024013</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SRR027110</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SRR035417</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SRR023659</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SRR023663</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SRR023671</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SRR023747</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SRR023755</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Fig S1: functional anlaysis of the genes regulated by different CRM regulatory mechanisms.</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1007,6 +1065,143 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>12700</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>88900</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>50800</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>154106</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="圖片 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DB8DA135-344F-CE80-46D2-8D2F27853DA1}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="838200" y="876300"/>
+          <a:ext cx="7772400" cy="2160706"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>25400</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>63500</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>98811</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="圖片 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D3134BFA-A667-CA90-70A2-C3D83812D9AC}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="850900" y="3467100"/>
+          <a:ext cx="7772400" cy="2765811"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>342900</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>5003800</xdr:colOff>
+      <xdr:row>50</xdr:row>
+      <xdr:rowOff>177800</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="5" name="圖片 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CA50C96A-717F-8791-F6B7-F092745A7DFB}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1168400" y="6756400"/>
+          <a:ext cx="4660900" cy="2997200"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1329,7 +1524,7 @@
   <dimension ref="B3:B12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection activeCell="B5" sqref="B5:B12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -2004,7 +2199,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{002BD705-396F-B24B-85FA-A91789A4237A}">
   <dimension ref="B3:C14"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
@@ -2105,7 +2300,7 @@
   <dimension ref="B2:F9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E20" sqref="E20"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -2225,4 +2420,120 @@
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F05B5B26-C09D-FB44-B90D-2CCECAD5E41F}">
+  <dimension ref="B2:H34"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
+  <cols>
+    <col min="2" max="2" width="69" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:2" ht="16">
+      <c r="B2" s="1" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="4" spans="2:2" ht="16">
+      <c r="B4" s="1" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="17" spans="2:8" ht="16">
+      <c r="B17" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="H17" s="1"/>
+    </row>
+    <row r="34" spans="2:2" ht="16">
+      <c r="B34" s="1" t="s">
+        <v>158</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EF17D583-615F-7249-819A-C9FC179D3DAB}">
+  <dimension ref="B3:B14"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F20" sqref="F20"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
+  <cols>
+    <col min="2" max="2" width="18.5" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="3" spans="2:2" ht="16">
+      <c r="B3" s="1" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="4" spans="2:2" ht="16" thickBot="1"/>
+    <row r="5" spans="2:2" ht="17" thickBot="1">
+      <c r="B5" s="18" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="6" spans="2:2" ht="16">
+      <c r="B6" s="19" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="7" spans="2:2" ht="16">
+      <c r="B7" s="20" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="8" spans="2:2" ht="16">
+      <c r="B8" s="20" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="9" spans="2:2" ht="16">
+      <c r="B9" s="20" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="10" spans="2:2" ht="16">
+      <c r="B10" s="20" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="11" spans="2:2" ht="16">
+      <c r="B11" s="20" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="12" spans="2:2" ht="16">
+      <c r="B12" s="20" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="13" spans="2:2" ht="16">
+      <c r="B13" s="20" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="14" spans="2:2" ht="17" thickBot="1">
+      <c r="B14" s="21" t="s">
+        <v>168</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/SupplementaryFile.xlsx
+++ b/SupplementaryFile.xlsx
@@ -1,24 +1,26 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10928"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10125"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/thyang/SyncCloud/Works/Research/3_CRM/2022_CRM-gene_target/Supplementary/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6D673A9F-4CFB-C64D-9AC7-B2CA0BAFAA73}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9544FB12-D1AF-C24A-BC96-4315E32A1BD2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4140" yWindow="500" windowWidth="28240" windowHeight="16500" activeTab="4" xr2:uid="{8995E919-6CB4-D04D-887A-1157242BEA27}"/>
+    <workbookView xWindow="4140" yWindow="600" windowWidth="28240" windowHeight="16460" activeTab="4" xr2:uid="{8995E919-6CB4-D04D-887A-1157242BEA27}"/>
   </bookViews>
   <sheets>
     <sheet name="TableS1" sheetId="2" r:id="rId1"/>
     <sheet name="TableS2" sheetId="3" r:id="rId2"/>
     <sheet name="Tables S3" sheetId="4" r:id="rId3"/>
     <sheet name="TableS4" sheetId="1" r:id="rId4"/>
-    <sheet name="Fig S1" sheetId="5" r:id="rId5"/>
-    <sheet name="Table S5" sheetId="6" r:id="rId6"/>
+    <sheet name="Fig S1" sheetId="7" r:id="rId5"/>
+    <sheet name="Fig S2" sheetId="8" r:id="rId6"/>
+    <sheet name="Fig S3" sheetId="5" r:id="rId7"/>
+    <sheet name="Table S5" sheetId="6" r:id="rId8"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -41,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="190" uniqueCount="170">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="193" uniqueCount="173">
   <si>
     <t>Training-validation Set</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -529,22 +531,10 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>a) Functional enrichment analysis for genes regulated by CRM-promoter interactions</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>b) Functional enrichment analysis for genes regulated by CRM-ncRNA transcription</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t xml:space="preserve">c) RNA-seq FPKM distributions of genes regulated by CRM-promoter interactions and genes regulated by CRM-ncRNA transcription </t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Tables S5: the Drosophila embryo RNA-seq runs used in Fig. S1-c</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>SRR023199</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -581,7 +571,31 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Fig S1: functional anlaysis of the genes regulated by different CRM regulatory mechanisms.</t>
+    <t>Fig S3: functional anlaysis of the genes regulated by different CRM regulatory mechanisms.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>a) Functional enrichment analysis for genes regulated by CRM-ncRNA transcription</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>b) Functional enrichment analysis for genes regulated by CRM-promoter interactions</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Tables S5: the Drosophila embryo RNA-seq runs used in Fig. S3-c</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Fig S2: comparison of CRM-TI with the average aggregation results of the two blocks in CRM-TI</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>(b) comparison of the random-initialized CRM-TI Block 2 model and the fine-tuned CRM-TI Block2 model</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">Fig S1:  (a) comparison of pre-training, fine-tuning results of CRM-TI Block 2 </t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1068,6 +1082,192 @@
 </file>
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>203200</xdr:colOff>
+      <xdr:row>69</xdr:row>
+      <xdr:rowOff>139700</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>152400</xdr:colOff>
+      <xdr:row>108</xdr:row>
+      <xdr:rowOff>88900</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="圖片 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{662AB6E5-642D-8941-92AB-27C510C75129}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5156200" y="12166600"/>
+          <a:ext cx="7378700" cy="7378700"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>25400</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>25400</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>38100</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>165100</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="圖片 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7A3365BB-A0CF-8F56-E08E-D01DC0AAF392}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="850900" y="419100"/>
+          <a:ext cx="4140200" cy="4140200"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>12700</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>50800</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>47</xdr:row>
+      <xdr:rowOff>165100</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="4" name="圖片 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3AD9A346-2758-13F8-5299-0A2F61747D65}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="838200" y="5029200"/>
+          <a:ext cx="4114800" cy="4114800"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>12700</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>25400</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>50800</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="圖片 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A830242E-A73A-1646-9142-4B0416E02BC5}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="838200" y="419100"/>
+          <a:ext cx="4165600" cy="4165600"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
@@ -2200,7 +2400,7 @@
   <dimension ref="B3:C14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B15" sqref="B15"/>
+      <selection activeCell="C22" sqref="C22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -2300,7 +2500,7 @@
   <dimension ref="B2:F9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="C22" sqref="C22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -2423,11 +2623,60 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F12322A1-B5D6-9547-B0AA-B4B75D3FF29E}">
+  <dimension ref="B2:B26"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
+      <selection activeCell="J20" sqref="J20"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="2" spans="2:2" ht="16">
+      <c r="B2" s="1" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="26" spans="2:2" ht="16">
+      <c r="B26" s="1" t="s">
+        <v>171</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{56F85087-E5D4-A54E-BED1-32BE084D7EC1}">
+  <dimension ref="B2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="J20" sqref="J20"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="2" spans="2:2" ht="16">
+      <c r="B2" s="1" t="s">
+        <v>170</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F05B5B26-C09D-FB44-B90D-2CCECAD5E41F}">
   <dimension ref="B2:H34"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+    <sheetView topLeftCell="A11" workbookViewId="0">
+      <selection activeCell="G50" sqref="G50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -2437,23 +2686,23 @@
   <sheetData>
     <row r="2" spans="2:2" ht="16">
       <c r="B2" s="1" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
     </row>
     <row r="4" spans="2:2" ht="16">
       <c r="B4" s="1" t="s">
-        <v>157</v>
+        <v>167</v>
       </c>
     </row>
     <row r="17" spans="2:8" ht="16">
       <c r="B17" s="1" t="s">
-        <v>156</v>
+        <v>168</v>
       </c>
       <c r="H17" s="1"/>
     </row>
     <row r="34" spans="2:2" ht="16">
       <c r="B34" s="1" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
     </row>
   </sheetData>
@@ -2463,12 +2712,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EF17D583-615F-7249-819A-C9FC179D3DAB}">
   <dimension ref="B3:B14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F20" sqref="F20"/>
+      <selection activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -2478,7 +2727,7 @@
   <sheetData>
     <row r="3" spans="2:2" ht="16">
       <c r="B3" s="1" t="s">
-        <v>159</v>
+        <v>169</v>
       </c>
     </row>
     <row r="4" spans="2:2" ht="16" thickBot="1"/>
@@ -2489,47 +2738,47 @@
     </row>
     <row r="6" spans="2:2" ht="16">
       <c r="B6" s="19" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
     </row>
     <row r="7" spans="2:2" ht="16">
       <c r="B7" s="20" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
     </row>
     <row r="8" spans="2:2" ht="16">
       <c r="B8" s="20" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
     </row>
     <row r="9" spans="2:2" ht="16">
       <c r="B9" s="20" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
     </row>
     <row r="10" spans="2:2" ht="16">
       <c r="B10" s="20" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
     </row>
     <row r="11" spans="2:2" ht="16">
       <c r="B11" s="20" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
     </row>
     <row r="12" spans="2:2" ht="16">
       <c r="B12" s="20" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
     </row>
     <row r="13" spans="2:2" ht="16">
       <c r="B13" s="20" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
     </row>
     <row r="14" spans="2:2" ht="17" thickBot="1">
       <c r="B14" s="21" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
     </row>
   </sheetData>
